--- a/기능정의서/기능정의서_201028.xlsx
+++ b/기능정의서/기능정의서_201028.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjhjh\Desktop\2020뉴딜_공간정보SW\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopar\SpringProject(ParkerBox)\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C25D7ED-2D16-40F7-9795-568BCCBD2020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B7790-AD62-4885-A75A-CB320C5FFCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>구분</t>
   </si>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화상세페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,54 +313,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극장상세페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트상세페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지_예매내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지_무비스토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지_포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 문의 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1 문의 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지_정보수정클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,18 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네비게이션바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무비스토리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,8 +381,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극장메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>영화목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스오피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매(극장, 영화, 시간선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 극장 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장 상세 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더(네비게이션바)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표관리페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표입력페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차</t>
+  </si>
+  <si>
+    <t>5회차</t>
   </si>
 </sst>
 </file>
@@ -868,6 +890,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,12 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,408 +1225,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="26"/>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="26"/>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="26"/>
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="26"/>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="26"/>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="26"/>
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31" t="s">
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" t="s">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" t="s">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="26"/>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="26"/>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="26"/>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="26"/>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="26"/>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="26"/>
+      <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31" t="s">
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1622,15 +1560,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1585,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1664,8 +1602,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="29"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1679,8 +1617,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1694,8 +1632,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1709,8 +1647,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1724,8 +1662,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1739,8 +1677,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1754,8 +1692,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
       <c r="B9" s="5" t="s">
         <v>60</v>
       </c>
@@ -1769,8 +1707,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1784,8 +1722,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="30"/>
       <c r="B11" s="6" t="s">
         <v>62</v>
       </c>
@@ -1799,8 +1737,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1816,8 +1754,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1831,8 +1769,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="30"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1846,8 +1784,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1863,8 +1801,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1878,8 +1816,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="32"/>
       <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1893,8 +1831,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1910,8 +1848,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="30"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1925,8 +1863,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1942,8 +1880,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1957,8 +1895,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="29"/>
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
@@ -1972,8 +1910,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1987,8 +1925,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2004,8 +1942,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="29"/>
       <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2019,8 +1957,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="32"/>
       <c r="B26" s="7" t="s">
         <v>71</v>
       </c>
@@ -2034,8 +1972,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="30"/>
       <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
@@ -2049,7 +1987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2066,8 +2004,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2083,8 +2021,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="30"/>
       <c r="B30" s="6" t="s">
         <v>53</v>
       </c>

--- a/기능정의서/기능정의서_201028.xlsx
+++ b/기능정의서/기능정의서_201028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopar\SpringProject(ParkerBox)\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B7790-AD62-4885-A75A-CB320C5FFCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C02636-B3A8-403F-8C9F-A247C056794C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>구분</t>
   </si>
@@ -477,6 +477,110 @@
   </si>
   <si>
     <t>5회차</t>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mheader.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxoffice.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerheader.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerMain.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetable.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeadd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieadd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theaterDetail.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theaterList.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payOk.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkIn.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieDetail.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieList.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memUpdate.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieStory.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPage.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerOk.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1227,17 +1331,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>82</v>
       </c>
@@ -1247,8 +1352,11 @@
       <c r="C1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>84</v>
       </c>
@@ -1258,8 +1366,11 @@
       <c r="C2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="26"/>
       <c r="B3" t="s">
         <v>81</v>
@@ -1267,8 +1378,11 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
       <c r="B4" t="s">
         <v>91</v>
@@ -1276,8 +1390,11 @@
       <c r="C4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="26" t="s">
         <v>85</v>
       </c>
@@ -1287,8 +1404,11 @@
       <c r="C5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>87</v>
@@ -1296,8 +1416,11 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>75</v>
@@ -1305,8 +1428,11 @@
       <c r="C7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="26" t="s">
         <v>79</v>
       </c>
@@ -1316,8 +1442,11 @@
       <c r="C8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="26"/>
       <c r="B9" t="s">
         <v>92</v>
@@ -1325,14 +1454,17 @@
       <c r="C9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="26"/>
       <c r="B10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
       <c r="B11" t="s">
         <v>94</v>
@@ -1340,8 +1472,11 @@
       <c r="C11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="26"/>
       <c r="B12" t="s">
         <v>95</v>
@@ -1349,8 +1484,11 @@
       <c r="C12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="26" t="s">
         <v>47</v>
       </c>
@@ -1360,8 +1498,11 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="26"/>
       <c r="B14" t="s">
         <v>97</v>
@@ -1369,8 +1510,11 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
         <v>98</v>
@@ -1378,8 +1522,11 @@
       <c r="C15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="26" t="s">
         <v>76</v>
       </c>
@@ -1388,6 +1535,9 @@
       </c>
       <c r="C16" t="s">
         <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -1398,6 +1548,9 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="26"/>
@@ -1407,6 +1560,9 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="27" t="s">
@@ -1415,6 +1571,9 @@
       <c r="C19" t="s">
         <v>69</v>
       </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
       <c r="I19" t="s">
         <v>107</v>
       </c>
@@ -1437,6 +1596,9 @@
       </c>
       <c r="C20" t="s">
         <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -1447,6 +1609,9 @@
       <c r="C21" t="s">
         <v>69</v>
       </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
       <c r="J21" t="s">
         <v>116</v>
       </c>
@@ -1472,6 +1637,9 @@
       </c>
       <c r="C22" t="s">
         <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
       </c>
       <c r="I22" t="s">
         <v>111</v>
@@ -1485,6 +1653,9 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
       <c r="I23" t="s">
         <v>112</v>
       </c>
@@ -1497,6 +1668,9 @@
       <c r="C24" t="s">
         <v>70</v>
       </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
       <c r="I24" t="s">
         <v>113</v>
       </c>
@@ -1509,6 +1683,9 @@
       <c r="C25" t="s">
         <v>70</v>
       </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
       <c r="I25" t="s">
         <v>114</v>
       </c>
@@ -1521,6 +1698,9 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
       <c r="I26" t="s">
         <v>115</v>
       </c>
@@ -1538,6 +1718,9 @@
       </c>
       <c r="C28" t="s">
         <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -1556,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1718,9 +1901,7 @@
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
@@ -1733,9 +1914,7 @@
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">

--- a/기능정의서/기능정의서_201028.xlsx
+++ b/기능정의서/기능정의서_201028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopar\SpringProject(ParkerBox)\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C02636-B3A8-403F-8C9F-A247C056794C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6EC776-8582-4E1D-A48D-DEBAE815061A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -891,22 +891,107 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -915,16 +1000,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -958,9 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,31 +1067,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,10 +1446,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -1357,7 +1460,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B2" t="s">
@@ -1371,7 +1474,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>81</v>
       </c>
@@ -1383,7 +1486,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -1395,7 +1498,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B5" t="s">
@@ -1409,7 +1512,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -1421,7 +1524,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -1433,7 +1536,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
@@ -1447,7 +1550,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -1459,13 +1562,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
         <v>94</v>
       </c>
@@ -1477,7 +1580,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>95</v>
       </c>
@@ -1489,7 +1592,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -1503,7 +1606,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
+      <c r="A14" s="23"/>
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -1515,7 +1618,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -1527,10 +1630,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C16" t="s">
@@ -1541,8 +1644,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C17" t="s">
@@ -1553,8 +1656,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -1565,7 +1668,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="s">
@@ -1588,10 +1691,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>101</v>
       </c>
       <c r="C20" t="s">
@@ -1602,7 +1705,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -1629,7 +1732,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B22" t="s">
@@ -1646,7 +1749,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>88</v>
       </c>
@@ -1661,7 +1764,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
+      <c r="A24" s="23"/>
       <c r="B24" t="s">
         <v>105</v>
       </c>
@@ -1676,7 +1779,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>106</v>
       </c>
@@ -1691,7 +1794,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>71</v>
       </c>
@@ -1706,13 +1809,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="26"/>
+      <c r="A27" s="23"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>89</v>
       </c>
@@ -1739,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1758,472 +1861,473 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>2</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>3</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>3</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>1</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>3</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>3</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="27"/>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D27" s="37">
         <v>3</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E27" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30"/>
-      <c r="B27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="22" t="s">
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="32">
+        <v>3</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="19">
-        <v>3</v>
-      </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="30"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>2</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="20" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기능정의서/기능정의서_201028.xlsx
+++ b/기능정의서/기능정의서_201028.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopar\SpringProject(ParkerBox)\기능정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6EC776-8582-4E1D-A48D-DEBAE815061A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236A8EC-91ED-40B4-B3C9-1D146D57F24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="120" windowWidth="20595" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="기능정의" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>구분</t>
   </si>
@@ -290,296 +289,6 @@
   </si>
   <si>
     <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입완료(회원대기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1문의 답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무비스토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 상세페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스오피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매(극장, 영화, 시간선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 극장 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장 상세 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더(네비게이션바)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표관리페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간표입력페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극장선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2회차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3회차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4회차</t>
-  </si>
-  <si>
-    <t>5회차</t>
-  </si>
-  <si>
-    <t>파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mheader.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>footer.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ask.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boxoffice.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>managerheader.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>managerMain.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timetable.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeadd.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieadd.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theaterDetail.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theaterList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payOk.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkIn.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieDetail.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memUpdate.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieStory.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myPage.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerOk.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,27 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1100,12 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +798,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,430 +1134,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="23"/>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="23"/>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,8 +1166,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1888,8 +1183,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1903,8 +1198,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1918,8 +1213,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1933,8 +1228,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1948,8 +1243,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1963,8 +1258,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1978,8 +1273,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1993,8 +1288,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
@@ -2006,8 +1301,8 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
@@ -2019,8 +1314,8 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2036,8 +1331,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2051,8 +1346,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2066,8 +1361,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2083,8 +1378,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2098,8 +1393,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +1408,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2130,8 +1425,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32"/>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2145,8 +1440,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2162,8 +1457,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
@@ -2177,8 +1472,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +1487,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
       <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
@@ -2207,8 +1502,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2224,8 +1519,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
@@ -2239,8 +1534,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
       <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
@@ -2254,40 +1549,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="37">
-        <v>3</v>
-      </c>
-      <c r="E27" s="38" t="s">
+      <c r="D27" s="28">
+        <v>3</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="30" t="s">
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36"/>
+      <c r="B28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="25">
         <v>3</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2303,8 +1598,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
